--- a/data/georgia_census/guria/choxatauri/average_wages.xlsx
+++ b/data/georgia_census/guria/choxatauri/average_wages.xlsx
@@ -1108,13 +1108,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A02478-EC58-4E54-BB69-17F6714F5E8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BAE1520-414B-4B38-9450-BFBFB0AC16E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E47C1B4-B685-4E83-BB6E-6BE92B35008A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ED5EA6-072C-4AB1-A1F4-C277A48B922C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13118908-A60C-42BF-B17A-03B7746881C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C2DCAA-9F12-4F51-AB11-89F0A7A5E5F9}"/>
 </file>